--- a/trunk/FASE 2/OBSERVACIONES/Observaciones - Post producción.xlsx
+++ b/trunk/FASE 2/OBSERVACIONES/Observaciones - Post producción.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Report.Control.Diario" sheetId="1" r:id="rId1"/>
     <sheet name="Detalle_ensayo" sheetId="2" r:id="rId2"/>
     <sheet name="Registrar_ensayo" sheetId="3" r:id="rId3"/>
+    <sheet name="Consult.Ensa.Funcion.Tiempo" sheetId="4" r:id="rId4"/>
+    <sheet name="Report.Consol.Arch" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="53">
   <si>
     <t>Fecha</t>
   </si>
@@ -47,9 +49,6 @@
   </si>
   <si>
     <t>Aparecen los valores de los ensayos de acuerdo al criterio de búsqueda seleccionado, con el número de decimales por tipo de ensayo.</t>
-  </si>
-  <si>
-    <t>Sigue apareciendo el problema que reportó el usuario, en el cual el tipo de ensayo KH tenía valores que terminaban con cero, sin embargo, en la base de datos estos valores están completo en sus 3 decimales. Por favor revisar y corregir. El error se presenta en el servidor 10.10.17.13 (war del branch) y en producción.</t>
   </si>
   <si>
     <r>
@@ -76,6 +75,296 @@
   </si>
   <si>
     <t>Se cayó la aplicación. El error se presenta en el servidor 10.10.17.13 (war del branch)</t>
+  </si>
+  <si>
+    <t>25.04.12</t>
+  </si>
+  <si>
+    <t>Resultado Esperado</t>
+  </si>
+  <si>
+    <t>Validado</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Registrar Ensayo - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ver detalle y registro de ensayo de Resistencia a Compresión 3 días(decimales -1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Registrar Ensayo - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ver detalle y registro de ensayo de MgO (decimales 1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Registrar Ensayo - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ver detalle y registro de ensayo de KH (decimales 3)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Registrar Ensayo - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ver registro de ensayo de Superficie específica (decimales -1)</t>
+    </r>
+  </si>
+  <si>
+    <t>Entré como rnarro. Ingresé a la funcionalidad Administrar Muestra, codigo: 2012 - 8961. Ingresé al detalle de la muestra y luego a la pestaña Ensayos.
+Pulsé sobre el botón Ensayo, verifiqué el tipo de ensayo Superficie Específica (5090)</t>
+  </si>
+  <si>
+    <t>Ingresé a la funcionalidad Administrar Muestra, codigo: 2012 - 8961. Ingresé al detalle de la muestra y luego a la pestaña Ensayos.
+Pulsé sobre el botón Ensayo, verifiqué el tipo de ensayo Resistencia a Compresión 3 días (2970)</t>
+  </si>
+  <si>
+    <t>Ingresé a la funcionalidad Administrar Muestra, codigo: 2012 - 8972. Ingresé al detalle de la muestra y luego a la pestaña Ensayos.
+Pulsé sobre el botón Ensayo, verifiqué el tipo de ensayo MgO (2.0)</t>
+  </si>
+  <si>
+    <t>Ingresé a la funcionalidad Administrar Muestra, codigo: 2012 - 8403. Ingresé al detalle de la muestra y luego a la pestaña Ensayos.
+Pulsé sobre el botón Ensayo, verifiqué el tipo de ensayo KH (0.930)</t>
+  </si>
+  <si>
+    <t>El sistema mostró el valor tal cual está grabado en la base de datos sin mostrar los decimales.</t>
+  </si>
+  <si>
+    <t>El sistema mostró el valor tal cual está grabado en la base de datos considerando el decimal del tipo de ensayo</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Registrar Ensayo - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ver detalle de ensayo de Superficie específica (decimales -1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Registrar Ensayo - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ver detalle de ensayo de Resistencia a Compresión 3 días(decimales -1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Registrar Ensayo - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ver detalle de ensayo de MgO (decimales 1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Registrar Ensayo - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ver detalle de ensayo de KH (decimales 3)</t>
+    </r>
+  </si>
+  <si>
+    <t>Entré como rnarro. Ingresé a la funcionalidad Administrar Muestra, codigo: 2012 - 8961. Ingresé al detalle de la muestra y luego a la pestaña Ensayos.
+Pulsé sobre el ID del tipo de ensayo Superficie Específica.</t>
+  </si>
+  <si>
+    <t>Ingresé a la funcionalidad Administrar Muestra, codigo: 2012 - 8961. Ingresé al detalle de la muestra y luego a la pestaña Ensayos.
+Pulsé sobre el ID del tipo de ensayo Resistencia a Compresión 3 días.</t>
+  </si>
+  <si>
+    <t>Ingresé a la funcionalidad Administrar Muestra, codigo: 2012 - 8972. Ingresé al detalle de la muestra y luego a la pestaña Ensayos.
+Pulsé sobre el ID del tipo de ensayo MgO.</t>
+  </si>
+  <si>
+    <t>Ingresé a la funcionalidad Administrar Muestra, codigo: 2012 - 8403. Ingresé al detalle de la muestra y luego a la pestaña Ensayos.
+Pulsé sobre el ID del tipo de ensayo KH.</t>
+  </si>
+  <si>
+    <t>El usuario reportó que el valor del tipo de ensayo KH tenía valores que terminaban con cero y que debería estar el valor completo y mostrar solo 3 decimales. Sin embargo, en la base de datos está tal cual, verificar si en el registro de los ensayos (desde la aplicación) hay un redondeo simple. Esto se presenta en el servidor 10.10.17.13 (war del branch) y en producción.</t>
+  </si>
+  <si>
+    <t>Ingresé como rnarro, al Reporte Específico Control Diario, y seleccioné los siguientes datos:
+Empresa: CPSAA. Planta: Cementos Pacasmayo. Proceso: Alimentación a Hornos Verticales. Fecha: 2011-06-10. Pulsé sobre el valor del tipo de Ensayo KH (0.937) en la opción Comportamiento en el tiempo. El sistema muestra una ventana emergente y en la que escribo lo siguiente:
+Fecha muestra inicio: 10-06-2011. Fecha muestra fin: 10-06-2011. Pulsé sobre el botón Ver gráfico.</t>
+  </si>
+  <si>
+    <t>El valor de la muestra de las 12:00 hrs. Está con 2 decimales porque se le explicó al usuario que no se puede modificar un dato decimal para agregarle un cero a la derecha y que con este llegue al número de decimales del tipo de ensayo. En la base de datos el valor es: 0.9300, porqué no muestra el cero despues del 3?</t>
+  </si>
+  <si>
+    <t>Muestra el gráfico de tendencia con los valores con el número de decimal del tipo de ensayo</t>
+  </si>
+  <si>
+    <r>
+      <t>Consultar Ensayo en Función del Tiempo -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Decimales del tipo de ensayo KH</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Consultar Ensayo en Función del Tiempo -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Data de Embolsadura enero de 2012</t>
+    </r>
+  </si>
+  <si>
+    <t>Seleccioné los siguientes datos:
+Empresa: CPSAA. Planta: Cementos Pacasmayo. Proceso: Embolsadura. Fecha: 2012-01-05. Pulsé sobre el valor del tipo de Ensayo Resistencia a Compresión 3 días (4120) en la opción Comportamiento en el tiempo. El sistema muestra una ventana emergente y en la que escribo lo siguiente:
+Fecha muestra inicio: 05-01-2012. Fecha muestra fin: 10-01-2012. Pulsé sobre el botón Ver gráfico.</t>
+  </si>
+  <si>
+    <t>Muestra el gráfico de tendencia de acuerdo al criterio de búsqueda ingresado</t>
+  </si>
+  <si>
+    <t>Se cayó la aplicación en el branch (servidor: 10.10.17.13). En producción está mostrando bien la data.</t>
+  </si>
+  <si>
+    <r>
+      <t>Consultar Ensayo en Función del Tiempo -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Data de Molienda de Cemento Compósito enero de 2012</t>
+    </r>
+  </si>
+  <si>
+    <t>Seleccioné los siguientes datos:
+Empresa: CPSAA. Planta: Cementos Pacasmayo. Proceso: Molienda de Cemento - Compósito. Fecha: 2012-01-05. Pulsé sobre el valor del tipo de Ensayo Resistencia a Compresión 3 días (3800) en la opción Comportamiento en el tiempo. El sistema muestra una ventana emergente y en la que escribo lo siguiente:
+Fecha muestra inicio: 05-01-2012. Fecha muestra fin: 10-01-2012. Pulsé sobre el botón Ver gráfico.</t>
+  </si>
+  <si>
+    <r>
+      <t>Consultar Ensayo en Función del Tiempo -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Data de Molienda de Cemento Compósito enero de 2012 usando equipo Genérico</t>
+    </r>
+  </si>
+  <si>
+    <t>Seleccioné los siguientes datos:
+Empresa: CPSAA. Planta: Cementos Pacasmayo. Proceso: Molienda de Cemento - Compósito. Fecha: 2012-01-05. Pulsé sobre el valor del tipo de Ensayo Resistencia a Compresión 3 días (3800) en la opción Comportamiento en el tiempo. El sistema muestra una ventana emergente y en la que escribo lo siguiente:
+Fecha muestra inicio: 05-01-2012. Fecha muestra fin: 10-01-2012. Equipo: Molino de Cemento 4. Pulsé sobre el botón Ver gráfico. Luego seleccioné Equipo: Genérico. Pulsé en Ver Gráfico.</t>
+  </si>
+  <si>
+    <t>Aparece la misma información de Molino de Cemento 4, sino hay data debería aparece que no se encontraron resultados. Esto pasa en producción, corregir en Branch.</t>
+  </si>
+  <si>
+    <t>Sistema muestra que no se encontraron resultados</t>
+  </si>
+  <si>
+    <t>Reporte Consolidado en Archivo</t>
+  </si>
+  <si>
+    <t>Entré como rnarro. Y seleccioné los siguientes datos:
+Empresa: CPSAA. Planta: Cementos Pacasmayo: Proceso: Molienda de Cemento - Compósito. Fecha muestra inicio: 01-02-2011. Hora muestra inicio: 07:00. Fecha muestra fin: 01-02-2011. Hora muestra fin: 23:00. Seleccioné Parámetros y Requisitos. Pulsé en el botón Generar</t>
+  </si>
+  <si>
+    <t>Aparecen las unidades de muestra y el promedio para tipo de ensayo Resistencia a Compresión</t>
   </si>
 </sst>
 </file>
@@ -99,7 +388,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,6 +398,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -140,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -165,6 +466,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -208,6 +528,152 @@
         <a:xfrm>
           <a:off x="6181725" y="2143125"/>
           <a:ext cx="2703444" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1457325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2143125</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2460120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4097" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect l="2059" t="7362" r="33162" b="11810"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6572251" y="1695450"/>
+          <a:ext cx="1676399" cy="1002795"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>685800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2733675</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1253697</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4098" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect l="5147" t="40338" r="55000" b="42024"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6162675" y="3543300"/>
+          <a:ext cx="2676525" cy="567897"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>733425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2771775</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1301322</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect l="5147" t="40338" r="55000" b="42024"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6200775" y="5114925"/>
+          <a:ext cx="2676525" cy="567897"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -514,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -550,7 +1016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="5" customFormat="1" ht="120">
+    <row r="2" spans="1:7" s="5" customFormat="1" ht="135">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -558,13 +1024,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>9</v>
@@ -581,16 +1047,16 @@
         <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>6</v>
@@ -605,10 +1071,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -637,10 +1103,94 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="5" customFormat="1" ht="60">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="5" customFormat="1" ht="75">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="60">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="60">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -651,13 +1201,329 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="55.140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="42.140625" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="5" customFormat="1" ht="75">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="5" customFormat="1" ht="75">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="75">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="75">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="55.140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="42.140625" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="5" customFormat="1" ht="206.25" customHeight="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="120">
+      <c r="A3" s="11"/>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="135">
+      <c r="A4" s="11"/>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="165">
+      <c r="A5" s="11"/>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="55.140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="42.140625" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="5" customFormat="1" ht="90">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/trunk/FASE 2/OBSERVACIONES/Observaciones - Post producción.xlsx
+++ b/trunk/FASE 2/OBSERVACIONES/Observaciones - Post producción.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Report.Control.Diario" sheetId="1" r:id="rId1"/>
@@ -518,7 +518,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:srcRect l="21376" t="60807" r="41289" b="24219"/>
         <a:stretch>
           <a:fillRect/>
@@ -617,7 +617,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:srcRect l="5147" t="40338" r="55000" b="42024"/>
         <a:stretch>
           <a:fillRect/>
@@ -664,7 +664,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:srcRect l="5147" t="40338" r="55000" b="42024"/>
         <a:stretch>
           <a:fillRect/>
@@ -980,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1466,7 +1466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/trunk/FASE 2/OBSERVACIONES/Observaciones - Post producción.xlsx
+++ b/trunk/FASE 2/OBSERVACIONES/Observaciones - Post producción.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="52">
   <si>
     <t>Fecha</t>
   </si>
@@ -30,9 +30,6 @@
   </si>
   <si>
     <t>Observaciones</t>
-  </si>
-  <si>
-    <t>Resultado</t>
   </si>
   <si>
     <t>Estado</t>
@@ -981,7 +978,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1010,10 +1007,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="135">
@@ -1021,22 +1018,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="90">
@@ -1044,22 +1041,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="G3" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1103,10 +1100,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="60">
@@ -1114,20 +1111,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="75">
@@ -1135,20 +1132,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="60">
@@ -1156,20 +1153,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="60">
@@ -1177,20 +1174,20 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1233,10 +1230,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="75">
@@ -1244,20 +1241,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" ht="75">
@@ -1265,20 +1262,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="75">
@@ -1286,20 +1283,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="75">
@@ -1307,20 +1304,20 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1363,10 +1360,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="206.25" customHeight="1">
@@ -1374,85 +1371,85 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="G2" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="120">
       <c r="A3" s="11"/>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="G3" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="135">
       <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>45</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="165">
       <c r="A5" s="11"/>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="F5" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>49</v>
-      </c>
       <c r="G5" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1496,10 +1493,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="90">
@@ -1507,20 +1504,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/FASE 2/OBSERVACIONES/Observaciones - Post producción.xlsx
+++ b/trunk/FASE 2/OBSERVACIONES/Observaciones - Post producción.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Report.Control.Diario" sheetId="1" r:id="rId1"/>
@@ -169,8 +169,38 @@
     <t>El sistema mostró el valor tal cual está grabado en la base de datos considerando el decimal del tipo de ensayo</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Registrar Ensayo - </t>
+    <t>Entré como rnarro. Ingresé a la funcionalidad Administrar Muestra, codigo: 2012 - 8961. Ingresé al detalle de la muestra y luego a la pestaña Ensayos.
+Pulsé sobre el ID del tipo de ensayo Superficie Específica.</t>
+  </si>
+  <si>
+    <t>Ingresé a la funcionalidad Administrar Muestra, codigo: 2012 - 8961. Ingresé al detalle de la muestra y luego a la pestaña Ensayos.
+Pulsé sobre el ID del tipo de ensayo Resistencia a Compresión 3 días.</t>
+  </si>
+  <si>
+    <t>Ingresé a la funcionalidad Administrar Muestra, codigo: 2012 - 8972. Ingresé al detalle de la muestra y luego a la pestaña Ensayos.
+Pulsé sobre el ID del tipo de ensayo MgO.</t>
+  </si>
+  <si>
+    <t>Ingresé a la funcionalidad Administrar Muestra, codigo: 2012 - 8403. Ingresé al detalle de la muestra y luego a la pestaña Ensayos.
+Pulsé sobre el ID del tipo de ensayo KH.</t>
+  </si>
+  <si>
+    <t>El usuario reportó que el valor del tipo de ensayo KH tenía valores que terminaban con cero y que debería estar el valor completo y mostrar solo 3 decimales. Sin embargo, en la base de datos está tal cual, verificar si en el registro de los ensayos (desde la aplicación) hay un redondeo simple. Esto se presenta en el servidor 10.10.17.13 (war del branch) y en producción.</t>
+  </si>
+  <si>
+    <t>Ingresé como rnarro, al Reporte Específico Control Diario, y seleccioné los siguientes datos:
+Empresa: CPSAA. Planta: Cementos Pacasmayo. Proceso: Alimentación a Hornos Verticales. Fecha: 2011-06-10. Pulsé sobre el valor del tipo de Ensayo KH (0.937) en la opción Comportamiento en el tiempo. El sistema muestra una ventana emergente y en la que escribo lo siguiente:
+Fecha muestra inicio: 10-06-2011. Fecha muestra fin: 10-06-2011. Pulsé sobre el botón Ver gráfico.</t>
+  </si>
+  <si>
+    <t>El valor de la muestra de las 12:00 hrs. Está con 2 decimales porque se le explicó al usuario que no se puede modificar un dato decimal para agregarle un cero a la derecha y que con este llegue al número de decimales del tipo de ensayo. En la base de datos el valor es: 0.9300, porqué no muestra el cero despues del 3?</t>
+  </si>
+  <si>
+    <t>Muestra el gráfico de tendencia con los valores con el número de decimal del tipo de ensayo</t>
+  </si>
+  <si>
+    <r>
+      <t>Consultar Ensayo en Función del Tiempo -</t>
     </r>
     <r>
       <rPr>
@@ -181,12 +211,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Ver detalle de ensayo de Superficie específica (decimales -1)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Registrar Ensayo - </t>
+      <t xml:space="preserve"> Decimales del tipo de ensayo KH</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Consultar Ensayo en Función del Tiempo -</t>
     </r>
     <r>
       <rPr>
@@ -197,12 +227,87 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Ver detalle de ensayo de Resistencia a Compresión 3 días(decimales -1)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Registrar Ensayo - </t>
+      <t xml:space="preserve"> Data de Embolsadura enero de 2012</t>
+    </r>
+  </si>
+  <si>
+    <t>Seleccioné los siguientes datos:
+Empresa: CPSAA. Planta: Cementos Pacasmayo. Proceso: Embolsadura. Fecha: 2012-01-05. Pulsé sobre el valor del tipo de Ensayo Resistencia a Compresión 3 días (4120) en la opción Comportamiento en el tiempo. El sistema muestra una ventana emergente y en la que escribo lo siguiente:
+Fecha muestra inicio: 05-01-2012. Fecha muestra fin: 10-01-2012. Pulsé sobre el botón Ver gráfico.</t>
+  </si>
+  <si>
+    <t>Muestra el gráfico de tendencia de acuerdo al criterio de búsqueda ingresado</t>
+  </si>
+  <si>
+    <t>Se cayó la aplicación en el branch (servidor: 10.10.17.13). En producción está mostrando bien la data.</t>
+  </si>
+  <si>
+    <r>
+      <t>Consultar Ensayo en Función del Tiempo -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Data de Molienda de Cemento Compósito enero de 2012</t>
+    </r>
+  </si>
+  <si>
+    <t>Seleccioné los siguientes datos:
+Empresa: CPSAA. Planta: Cementos Pacasmayo. Proceso: Molienda de Cemento - Compósito. Fecha: 2012-01-05. Pulsé sobre el valor del tipo de Ensayo Resistencia a Compresión 3 días (3800) en la opción Comportamiento en el tiempo. El sistema muestra una ventana emergente y en la que escribo lo siguiente:
+Fecha muestra inicio: 05-01-2012. Fecha muestra fin: 10-01-2012. Pulsé sobre el botón Ver gráfico.</t>
+  </si>
+  <si>
+    <r>
+      <t>Consultar Ensayo en Función del Tiempo -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Data de Molienda de Cemento Compósito enero de 2012 usando equipo Genérico</t>
+    </r>
+  </si>
+  <si>
+    <t>Seleccioné los siguientes datos:
+Empresa: CPSAA. Planta: Cementos Pacasmayo. Proceso: Molienda de Cemento - Compósito. Fecha: 2012-01-05. Pulsé sobre el valor del tipo de Ensayo Resistencia a Compresión 3 días (3800) en la opción Comportamiento en el tiempo. El sistema muestra una ventana emergente y en la que escribo lo siguiente:
+Fecha muestra inicio: 05-01-2012. Fecha muestra fin: 10-01-2012. Equipo: Molino de Cemento 4. Pulsé sobre el botón Ver gráfico. Luego seleccioné Equipo: Genérico. Pulsé en Ver Gráfico.</t>
+  </si>
+  <si>
+    <t>Aparece la misma información de Molino de Cemento 4, sino hay data debería aparece que no se encontraron resultados. Esto pasa en producción, corregir en Branch.</t>
+  </si>
+  <si>
+    <t>Sistema muestra que no se encontraron resultados</t>
+  </si>
+  <si>
+    <t>Reporte Consolidado en Archivo</t>
+  </si>
+  <si>
+    <t>Entré como rnarro. Y seleccioné los siguientes datos:
+Empresa: CPSAA. Planta: Cementos Pacasmayo: Proceso: Molienda de Cemento - Compósito. Fecha muestra inicio: 01-02-2011. Hora muestra inicio: 07:00. Fecha muestra fin: 01-02-2011. Hora muestra fin: 23:00. Seleccioné Parámetros y Requisitos. Pulsé en el botón Generar</t>
+  </si>
+  <si>
+    <t>Aparecen las unidades de muestra y el promedio para tipo de ensayo Resistencia a Compresión</t>
+  </si>
+  <si>
+    <t>Ver detalle de ensayo de Superficie específica (decimales -1)</t>
+  </si>
+  <si>
+    <t>Ver detalle de ensayo de Resistencia a Compresión 3 días(decimales -1)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -217,151 +322,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Registrar Ensayo - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ver detalle de ensayo de KH (decimales 3)</t>
-    </r>
-  </si>
-  <si>
-    <t>Entré como rnarro. Ingresé a la funcionalidad Administrar Muestra, codigo: 2012 - 8961. Ingresé al detalle de la muestra y luego a la pestaña Ensayos.
-Pulsé sobre el ID del tipo de ensayo Superficie Específica.</t>
-  </si>
-  <si>
-    <t>Ingresé a la funcionalidad Administrar Muestra, codigo: 2012 - 8961. Ingresé al detalle de la muestra y luego a la pestaña Ensayos.
-Pulsé sobre el ID del tipo de ensayo Resistencia a Compresión 3 días.</t>
-  </si>
-  <si>
-    <t>Ingresé a la funcionalidad Administrar Muestra, codigo: 2012 - 8972. Ingresé al detalle de la muestra y luego a la pestaña Ensayos.
-Pulsé sobre el ID del tipo de ensayo MgO.</t>
-  </si>
-  <si>
-    <t>Ingresé a la funcionalidad Administrar Muestra, codigo: 2012 - 8403. Ingresé al detalle de la muestra y luego a la pestaña Ensayos.
-Pulsé sobre el ID del tipo de ensayo KH.</t>
-  </si>
-  <si>
-    <t>El usuario reportó que el valor del tipo de ensayo KH tenía valores que terminaban con cero y que debería estar el valor completo y mostrar solo 3 decimales. Sin embargo, en la base de datos está tal cual, verificar si en el registro de los ensayos (desde la aplicación) hay un redondeo simple. Esto se presenta en el servidor 10.10.17.13 (war del branch) y en producción.</t>
-  </si>
-  <si>
-    <t>Ingresé como rnarro, al Reporte Específico Control Diario, y seleccioné los siguientes datos:
-Empresa: CPSAA. Planta: Cementos Pacasmayo. Proceso: Alimentación a Hornos Verticales. Fecha: 2011-06-10. Pulsé sobre el valor del tipo de Ensayo KH (0.937) en la opción Comportamiento en el tiempo. El sistema muestra una ventana emergente y en la que escribo lo siguiente:
-Fecha muestra inicio: 10-06-2011. Fecha muestra fin: 10-06-2011. Pulsé sobre el botón Ver gráfico.</t>
-  </si>
-  <si>
-    <t>El valor de la muestra de las 12:00 hrs. Está con 2 decimales porque se le explicó al usuario que no se puede modificar un dato decimal para agregarle un cero a la derecha y que con este llegue al número de decimales del tipo de ensayo. En la base de datos el valor es: 0.9300, porqué no muestra el cero despues del 3?</t>
-  </si>
-  <si>
-    <t>Muestra el gráfico de tendencia con los valores con el número de decimal del tipo de ensayo</t>
-  </si>
-  <si>
-    <r>
-      <t>Consultar Ensayo en Función del Tiempo -</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Decimales del tipo de ensayo KH</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Consultar Ensayo en Función del Tiempo -</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Data de Embolsadura enero de 2012</t>
-    </r>
-  </si>
-  <si>
-    <t>Seleccioné los siguientes datos:
-Empresa: CPSAA. Planta: Cementos Pacasmayo. Proceso: Embolsadura. Fecha: 2012-01-05. Pulsé sobre el valor del tipo de Ensayo Resistencia a Compresión 3 días (4120) en la opción Comportamiento en el tiempo. El sistema muestra una ventana emergente y en la que escribo lo siguiente:
-Fecha muestra inicio: 05-01-2012. Fecha muestra fin: 10-01-2012. Pulsé sobre el botón Ver gráfico.</t>
-  </si>
-  <si>
-    <t>Muestra el gráfico de tendencia de acuerdo al criterio de búsqueda ingresado</t>
-  </si>
-  <si>
-    <t>Se cayó la aplicación en el branch (servidor: 10.10.17.13). En producción está mostrando bien la data.</t>
-  </si>
-  <si>
-    <r>
-      <t>Consultar Ensayo en Función del Tiempo -</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Data de Molienda de Cemento Compósito enero de 2012</t>
-    </r>
-  </si>
-  <si>
-    <t>Seleccioné los siguientes datos:
-Empresa: CPSAA. Planta: Cementos Pacasmayo. Proceso: Molienda de Cemento - Compósito. Fecha: 2012-01-05. Pulsé sobre el valor del tipo de Ensayo Resistencia a Compresión 3 días (3800) en la opción Comportamiento en el tiempo. El sistema muestra una ventana emergente y en la que escribo lo siguiente:
-Fecha muestra inicio: 05-01-2012. Fecha muestra fin: 10-01-2012. Pulsé sobre el botón Ver gráfico.</t>
-  </si>
-  <si>
-    <r>
-      <t>Consultar Ensayo en Función del Tiempo -</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Data de Molienda de Cemento Compósito enero de 2012 usando equipo Genérico</t>
-    </r>
-  </si>
-  <si>
-    <t>Seleccioné los siguientes datos:
-Empresa: CPSAA. Planta: Cementos Pacasmayo. Proceso: Molienda de Cemento - Compósito. Fecha: 2012-01-05. Pulsé sobre el valor del tipo de Ensayo Resistencia a Compresión 3 días (3800) en la opción Comportamiento en el tiempo. El sistema muestra una ventana emergente y en la que escribo lo siguiente:
-Fecha muestra inicio: 05-01-2012. Fecha muestra fin: 10-01-2012. Equipo: Molino de Cemento 4. Pulsé sobre el botón Ver gráfico. Luego seleccioné Equipo: Genérico. Pulsé en Ver Gráfico.</t>
-  </si>
-  <si>
-    <t>Aparece la misma información de Molino de Cemento 4, sino hay data debería aparece que no se encontraron resultados. Esto pasa en producción, corregir en Branch.</t>
-  </si>
-  <si>
-    <t>Sistema muestra que no se encontraron resultados</t>
-  </si>
-  <si>
-    <t>Reporte Consolidado en Archivo</t>
-  </si>
-  <si>
-    <t>Entré como rnarro. Y seleccioné los siguientes datos:
-Empresa: CPSAA. Planta: Cementos Pacasmayo: Proceso: Molienda de Cemento - Compósito. Fecha muestra inicio: 01-02-2011. Hora muestra inicio: 07:00. Fecha muestra fin: 01-02-2011. Hora muestra fin: 23:00. Seleccioné Parámetros y Requisitos. Pulsé en el botón Generar</t>
-  </si>
-  <si>
-    <t>Aparecen las unidades de muestra y el promedio para tipo de ensayo Resistencia a Compresión</t>
+    <t>Ver detalle de ensayo de KH (decimales 3)</t>
   </si>
 </sst>
 </file>
@@ -438,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -481,6 +442,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -977,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1027,7 +991,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>8</v>
@@ -1070,8 +1034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1113,11 +1077,11 @@
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="4" t="s">
@@ -1134,11 +1098,11 @@
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="4" t="s">
@@ -1156,10 +1120,10 @@
         <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="4" t="s">
@@ -1176,11 +1140,11 @@
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="4" t="s">
@@ -1201,7 +1165,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B2" sqref="B2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1374,16 +1338,16 @@
         <v>13</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>15</v>
@@ -1395,16 +1359,16 @@
         <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>5</v>
@@ -1416,16 +1380,16 @@
         <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>5</v>
@@ -1437,16 +1401,16 @@
         <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>5</v>
@@ -1507,14 +1471,14 @@
         <v>13</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>15</v>
